--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.889856</v>
+        <v>2.256409</v>
       </c>
       <c r="H2">
-        <v>8.669568000000002</v>
+        <v>6.769227</v>
       </c>
       <c r="I2">
-        <v>0.06333786583275691</v>
+        <v>0.08335947696385336</v>
       </c>
       <c r="J2">
-        <v>0.06333786583275693</v>
+        <v>0.08335947696385337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.982088</v>
+        <v>0.5144123333333334</v>
       </c>
       <c r="N2">
-        <v>2.946264</v>
+        <v>1.543237</v>
       </c>
       <c r="O2">
-        <v>0.437201213250788</v>
+        <v>0.2897032958967005</v>
       </c>
       <c r="P2">
-        <v>0.4372012132507879</v>
+        <v>0.2897032958967005</v>
       </c>
       <c r="Q2">
-        <v>2.838092899328</v>
+        <v>1.160724618644333</v>
       </c>
       <c r="R2">
-        <v>25.542836093952</v>
+        <v>10.446521567799</v>
       </c>
       <c r="S2">
-        <v>0.02769139178679695</v>
+        <v>0.0241495152206534</v>
       </c>
       <c r="T2">
-        <v>0.02769139178679696</v>
+        <v>0.0241495152206534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.889856</v>
+        <v>2.256409</v>
       </c>
       <c r="H3">
-        <v>8.669568000000002</v>
+        <v>6.769227</v>
       </c>
       <c r="I3">
-        <v>0.06333786583275691</v>
+        <v>0.08335947696385336</v>
       </c>
       <c r="J3">
-        <v>0.06333786583275693</v>
+        <v>0.08335947696385337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.698852</v>
       </c>
       <c r="O3">
-        <v>0.1037038575914242</v>
+        <v>0.1311915977545905</v>
       </c>
       <c r="P3">
-        <v>0.1037038575914241</v>
+        <v>0.1311915977545905</v>
       </c>
       <c r="Q3">
-        <v>0.6731938817706667</v>
+        <v>0.5256319808226667</v>
       </c>
       <c r="R3">
-        <v>6.058744935936001</v>
+        <v>4.730687827404</v>
       </c>
       <c r="S3">
-        <v>0.006568381018464953</v>
+        <v>0.0109360629708749</v>
       </c>
       <c r="T3">
-        <v>0.006568381018464953</v>
+        <v>0.0109360629708749</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.889856</v>
+        <v>2.256409</v>
       </c>
       <c r="H4">
-        <v>8.669568000000002</v>
+        <v>6.769227</v>
       </c>
       <c r="I4">
-        <v>0.06333786583275691</v>
+        <v>0.08335947696385336</v>
       </c>
       <c r="J4">
-        <v>0.06333786583275693</v>
+        <v>0.08335947696385337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4695563333333333</v>
+        <v>0.440577</v>
       </c>
       <c r="N4">
-        <v>1.408669</v>
+        <v>1.321731</v>
       </c>
       <c r="O4">
-        <v>0.2090348305069655</v>
+        <v>0.2481212069104368</v>
       </c>
       <c r="P4">
-        <v>0.2090348305069655</v>
+        <v>0.2481212069104368</v>
       </c>
       <c r="Q4">
-        <v>1.356950187221333</v>
+        <v>0.994121907993</v>
       </c>
       <c r="R4">
-        <v>12.212551684992</v>
+        <v>8.947097171936999</v>
       </c>
       <c r="S4">
-        <v>0.01323982004902326</v>
+        <v>0.02068325403169406</v>
       </c>
       <c r="T4">
-        <v>0.01323982004902327</v>
+        <v>0.02068325403169406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.889856</v>
+        <v>2.256409</v>
       </c>
       <c r="H5">
-        <v>8.669568000000002</v>
+        <v>6.769227</v>
       </c>
       <c r="I5">
-        <v>0.06333786583275691</v>
+        <v>0.08335947696385336</v>
       </c>
       <c r="J5">
-        <v>0.06333786583275693</v>
+        <v>0.08335947696385337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.437975</v>
+        <v>0.3969313333333333</v>
       </c>
       <c r="N5">
-        <v>1.313925</v>
+        <v>1.190794</v>
       </c>
       <c r="O5">
-        <v>0.1949756043995181</v>
+        <v>0.2235411323950991</v>
       </c>
       <c r="P5">
-        <v>0.194975604399518</v>
+        <v>0.2235411323950991</v>
       </c>
       <c r="Q5">
-        <v>1.2656846816</v>
+        <v>0.8956394329153333</v>
       </c>
       <c r="R5">
-        <v>11.3911621344</v>
+        <v>8.060754896237999</v>
       </c>
       <c r="S5">
-        <v>0.01234933867211736</v>
+        <v>0.01863427187636296</v>
       </c>
       <c r="T5">
-        <v>0.01234933867211736</v>
+        <v>0.01863427187636296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.889856</v>
+        <v>2.256409</v>
       </c>
       <c r="H6">
-        <v>8.669568000000002</v>
+        <v>6.769227</v>
       </c>
       <c r="I6">
-        <v>0.06333786583275691</v>
+        <v>0.08335947696385336</v>
       </c>
       <c r="J6">
-        <v>0.06333786583275693</v>
+        <v>0.08335947696385337</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1237366666666667</v>
+        <v>0.190781</v>
       </c>
       <c r="N6">
-        <v>0.37121</v>
+        <v>0.572343</v>
       </c>
       <c r="O6">
-        <v>0.05508449425130437</v>
+        <v>0.1074427670431731</v>
       </c>
       <c r="P6">
-        <v>0.05508449425130436</v>
+        <v>0.1074427670431731</v>
       </c>
       <c r="Q6">
-        <v>0.3575811485866667</v>
+        <v>0.430479965429</v>
       </c>
       <c r="R6">
-        <v>3.218230337280001</v>
+        <v>3.874319688861</v>
       </c>
       <c r="S6">
-        <v>0.003488934306354386</v>
+        <v>0.008956372864268047</v>
       </c>
       <c r="T6">
-        <v>0.003488934306354386</v>
+        <v>0.008956372864268048</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4.252193</v>
       </c>
       <c r="I7">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402688</v>
       </c>
       <c r="J7">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402689</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.982088</v>
+        <v>0.5144123333333334</v>
       </c>
       <c r="N7">
-        <v>2.946264</v>
+        <v>1.543237</v>
       </c>
       <c r="O7">
-        <v>0.437201213250788</v>
+        <v>0.2897032958967005</v>
       </c>
       <c r="P7">
-        <v>0.4372012132507879</v>
+        <v>0.2897032958967005</v>
       </c>
       <c r="Q7">
-        <v>1.392009239661333</v>
+        <v>0.7291268409712223</v>
       </c>
       <c r="R7">
-        <v>12.528083156952</v>
+        <v>6.562141568741</v>
       </c>
       <c r="S7">
-        <v>0.01358189269823773</v>
+        <v>0.01516988565676049</v>
       </c>
       <c r="T7">
-        <v>0.01358189269823773</v>
+        <v>0.01516988565676049</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.252193</v>
       </c>
       <c r="I8">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402688</v>
       </c>
       <c r="J8">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402689</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.698852</v>
       </c>
       <c r="O8">
-        <v>0.1037038575914242</v>
+        <v>0.1311915977545905</v>
       </c>
       <c r="P8">
-        <v>0.1037038575914241</v>
+        <v>0.1311915977545905</v>
       </c>
       <c r="Q8">
         <v>0.3301837313817778</v>
@@ -948,10 +948,10 @@
         <v>2.971653582436</v>
       </c>
       <c r="S8">
-        <v>0.003221616554371514</v>
+        <v>0.006869654454240264</v>
       </c>
       <c r="T8">
-        <v>0.003221616554371514</v>
+        <v>0.006869654454240265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4.252193</v>
       </c>
       <c r="I9">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402688</v>
       </c>
       <c r="J9">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402689</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4695563333333333</v>
+        <v>0.440577</v>
       </c>
       <c r="N9">
-        <v>1.408669</v>
+        <v>1.321731</v>
       </c>
       <c r="O9">
-        <v>0.2090348305069655</v>
+        <v>0.2481212069104368</v>
       </c>
       <c r="P9">
-        <v>0.2090348305069655</v>
+        <v>0.2481212069104368</v>
       </c>
       <c r="Q9">
-        <v>0.6655480512352222</v>
+        <v>0.6244728117870001</v>
       </c>
       <c r="R9">
-        <v>5.989932461117</v>
+        <v>5.620255306083</v>
       </c>
       <c r="S9">
-        <v>0.006493780328352736</v>
+        <v>0.01299250091787308</v>
       </c>
       <c r="T9">
-        <v>0.006493780328352737</v>
+        <v>0.01299250091787308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4.252193</v>
       </c>
       <c r="I10">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402688</v>
       </c>
       <c r="J10">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402689</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.437975</v>
+        <v>0.3969313333333333</v>
       </c>
       <c r="N10">
-        <v>1.313925</v>
+        <v>1.190794</v>
       </c>
       <c r="O10">
-        <v>0.1949756043995181</v>
+        <v>0.2235411323950991</v>
       </c>
       <c r="P10">
-        <v>0.194975604399518</v>
+        <v>0.2235411323950991</v>
       </c>
       <c r="Q10">
-        <v>0.6207847430583334</v>
+        <v>0.5626095456935556</v>
       </c>
       <c r="R10">
-        <v>5.587062687525</v>
+        <v>5.063485911242</v>
       </c>
       <c r="S10">
-        <v>0.006057022847759743</v>
+        <v>0.01170540158171198</v>
       </c>
       <c r="T10">
-        <v>0.006057022847759743</v>
+        <v>0.01170540158171198</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>4.252193</v>
       </c>
       <c r="I11">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402688</v>
       </c>
       <c r="J11">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402689</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1237366666666667</v>
+        <v>0.190781</v>
       </c>
       <c r="N11">
-        <v>0.37121</v>
+        <v>0.572343</v>
       </c>
       <c r="O11">
-        <v>0.05508449425130437</v>
+        <v>0.1074427670431731</v>
       </c>
       <c r="P11">
-        <v>0.05508449425130436</v>
+        <v>0.1074427670431731</v>
       </c>
       <c r="Q11">
-        <v>0.1753840626144445</v>
+        <v>0.2704125442443334</v>
       </c>
       <c r="R11">
-        <v>1.57845656353</v>
+        <v>2.433712898199</v>
       </c>
       <c r="S11">
-        <v>0.001711229675450954</v>
+        <v>0.005626081973441066</v>
       </c>
       <c r="T11">
-        <v>0.001711229675450954</v>
+        <v>0.005626081973441066</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8772793333333334</v>
+        <v>2.140981333333333</v>
       </c>
       <c r="H12">
-        <v>2.631838</v>
+        <v>6.422944</v>
       </c>
       <c r="I12">
-        <v>0.01922760189868183</v>
+        <v>0.0790951836019268</v>
       </c>
       <c r="J12">
-        <v>0.01922760189868184</v>
+        <v>0.07909518360192681</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.982088</v>
+        <v>0.5144123333333334</v>
       </c>
       <c r="N12">
-        <v>2.946264</v>
+        <v>1.543237</v>
       </c>
       <c r="O12">
-        <v>0.437201213250788</v>
+        <v>0.2897032958967005</v>
       </c>
       <c r="P12">
-        <v>0.4372012132507879</v>
+        <v>0.2897032958967005</v>
       </c>
       <c r="Q12">
-        <v>0.8615655059146667</v>
+        <v>1.101347203303111</v>
       </c>
       <c r="R12">
-        <v>7.754089553231999</v>
+        <v>9.912124829728</v>
       </c>
       <c r="S12">
-        <v>0.008406330878006853</v>
+        <v>0.02291413537903286</v>
       </c>
       <c r="T12">
-        <v>0.008406330878006853</v>
+        <v>0.02291413537903285</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8772793333333334</v>
+        <v>2.140981333333333</v>
       </c>
       <c r="H13">
-        <v>2.631838</v>
+        <v>6.422944</v>
       </c>
       <c r="I13">
-        <v>0.01922760189868183</v>
+        <v>0.0790951836019268</v>
       </c>
       <c r="J13">
-        <v>0.01922760189868184</v>
+        <v>0.07909518360192681</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.698852</v>
       </c>
       <c r="O13">
-        <v>0.1037038575914242</v>
+        <v>0.1311915977545905</v>
       </c>
       <c r="P13">
-        <v>0.1037038575914241</v>
+        <v>0.1311915977545905</v>
       </c>
       <c r="Q13">
-        <v>0.2043628055528889</v>
+        <v>0.4987430289208889</v>
       </c>
       <c r="R13">
-        <v>1.839265249976</v>
+        <v>4.488687260288001</v>
       </c>
       <c r="S13">
-        <v>0.001993976489125498</v>
+        <v>0.01037662351142946</v>
       </c>
       <c r="T13">
-        <v>0.001993976489125498</v>
+        <v>0.01037662351142946</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8772793333333334</v>
+        <v>2.140981333333333</v>
       </c>
       <c r="H14">
-        <v>2.631838</v>
+        <v>6.422944</v>
       </c>
       <c r="I14">
-        <v>0.01922760189868183</v>
+        <v>0.0790951836019268</v>
       </c>
       <c r="J14">
-        <v>0.01922760189868184</v>
+        <v>0.07909518360192681</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4695563333333333</v>
+        <v>0.440577</v>
       </c>
       <c r="N14">
-        <v>1.408669</v>
+        <v>1.321731</v>
       </c>
       <c r="O14">
-        <v>0.2090348305069655</v>
+        <v>0.2481212069104368</v>
       </c>
       <c r="P14">
-        <v>0.2090348305069655</v>
+        <v>0.2481212069104368</v>
       </c>
       <c r="Q14">
-        <v>0.4119320670691111</v>
+        <v>0.9432671328960001</v>
       </c>
       <c r="R14">
-        <v>3.707388603622</v>
+        <v>8.489404196064001</v>
       </c>
       <c r="S14">
-        <v>0.004019238503946365</v>
+        <v>0.01962519241611267</v>
       </c>
       <c r="T14">
-        <v>0.004019238503946366</v>
+        <v>0.01962519241611268</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8772793333333334</v>
+        <v>2.140981333333333</v>
       </c>
       <c r="H15">
-        <v>2.631838</v>
+        <v>6.422944</v>
       </c>
       <c r="I15">
-        <v>0.01922760189868183</v>
+        <v>0.0790951836019268</v>
       </c>
       <c r="J15">
-        <v>0.01922760189868184</v>
+        <v>0.07909518360192681</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.437975</v>
+        <v>0.3969313333333333</v>
       </c>
       <c r="N15">
-        <v>1.313925</v>
+        <v>1.190794</v>
       </c>
       <c r="O15">
-        <v>0.1949756043995181</v>
+        <v>0.2235411323950991</v>
       </c>
       <c r="P15">
-        <v>0.194975604399518</v>
+        <v>0.2235411323950991</v>
       </c>
       <c r="Q15">
-        <v>0.3842264160166667</v>
+        <v>0.8498225752817777</v>
       </c>
       <c r="R15">
-        <v>3.45803774415</v>
+        <v>7.648403177535999</v>
       </c>
       <c r="S15">
-        <v>0.003748913301348811</v>
+        <v>0.01768102690937299</v>
       </c>
       <c r="T15">
-        <v>0.003748913301348812</v>
+        <v>0.01768102690937299</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8772793333333334</v>
+        <v>2.140981333333333</v>
       </c>
       <c r="H16">
-        <v>2.631838</v>
+        <v>6.422944</v>
       </c>
       <c r="I16">
-        <v>0.01922760189868183</v>
+        <v>0.0790951836019268</v>
       </c>
       <c r="J16">
-        <v>0.01922760189868184</v>
+        <v>0.07909518360192681</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1237366666666667</v>
+        <v>0.190781</v>
       </c>
       <c r="N16">
-        <v>0.37121</v>
+        <v>0.572343</v>
       </c>
       <c r="O16">
-        <v>0.05508449425130437</v>
+        <v>0.1074427670431731</v>
       </c>
       <c r="P16">
-        <v>0.05508449425130436</v>
+        <v>0.1074427670431731</v>
       </c>
       <c r="Q16">
-        <v>0.1085516204422222</v>
+        <v>0.4084585597546667</v>
       </c>
       <c r="R16">
-        <v>0.9769645839800002</v>
+        <v>3.676127037792</v>
       </c>
       <c r="S16">
-        <v>0.001059142726254309</v>
+        <v>0.008498205385978824</v>
       </c>
       <c r="T16">
-        <v>0.001059142726254309</v>
+        <v>0.008498205385978824</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.84844466666667</v>
+        <v>20.12912933333333</v>
       </c>
       <c r="H17">
-        <v>119.545334</v>
+        <v>60.387388</v>
       </c>
       <c r="I17">
-        <v>0.8733706599710749</v>
+        <v>0.7436389825445764</v>
       </c>
       <c r="J17">
-        <v>0.873370659971075</v>
+        <v>0.7436389825445765</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.982088</v>
+        <v>0.5144123333333334</v>
       </c>
       <c r="N17">
-        <v>2.946264</v>
+        <v>1.543237</v>
       </c>
       <c r="O17">
-        <v>0.437201213250788</v>
+        <v>0.2897032958967005</v>
       </c>
       <c r="P17">
-        <v>0.4372012132507879</v>
+        <v>0.2897032958967005</v>
       </c>
       <c r="Q17">
-        <v>39.13467932579733</v>
+        <v>10.35467238832845</v>
       </c>
       <c r="R17">
-        <v>352.212113932176</v>
+        <v>93.192051494956</v>
       </c>
       <c r="S17">
-        <v>0.3818387121569953</v>
+        <v>0.2154346642004327</v>
       </c>
       <c r="T17">
-        <v>0.3818387121569953</v>
+        <v>0.2154346642004327</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.84844466666667</v>
+        <v>20.12912933333333</v>
       </c>
       <c r="H18">
-        <v>119.545334</v>
+        <v>60.387388</v>
       </c>
       <c r="I18">
-        <v>0.8733706599710749</v>
+        <v>0.7436389825445764</v>
       </c>
       <c r="J18">
-        <v>0.873370659971075</v>
+        <v>0.7436389825445765</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.698852</v>
       </c>
       <c r="O18">
-        <v>0.1037038575914242</v>
+        <v>0.1311915977545905</v>
       </c>
       <c r="P18">
-        <v>0.1037038575914241</v>
+        <v>0.1311915977545905</v>
       </c>
       <c r="Q18">
-        <v>9.282721750729777</v>
+        <v>4.689094097619556</v>
       </c>
       <c r="R18">
-        <v>83.544495756568</v>
+        <v>42.201846878576</v>
       </c>
       <c r="S18">
-        <v>0.09057190654616848</v>
+        <v>0.09755918627262099</v>
       </c>
       <c r="T18">
-        <v>0.09057190654616848</v>
+        <v>0.097559186272621</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.84844466666667</v>
+        <v>20.12912933333333</v>
       </c>
       <c r="H19">
-        <v>119.545334</v>
+        <v>60.387388</v>
       </c>
       <c r="I19">
-        <v>0.8733706599710749</v>
+        <v>0.7436389825445764</v>
       </c>
       <c r="J19">
-        <v>0.873370659971075</v>
+        <v>0.7436389825445765</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4695563333333333</v>
+        <v>0.440577</v>
       </c>
       <c r="N19">
-        <v>1.408669</v>
+        <v>1.321731</v>
       </c>
       <c r="O19">
-        <v>0.2090348305069655</v>
+        <v>0.2481212069104368</v>
       </c>
       <c r="P19">
-        <v>0.2090348305069655</v>
+        <v>0.2481212069104368</v>
       </c>
       <c r="Q19">
-        <v>18.71108956671622</v>
+        <v>8.868431414292001</v>
       </c>
       <c r="R19">
-        <v>168.399806100446</v>
+        <v>79.815882728628</v>
       </c>
       <c r="S19">
-        <v>0.1825648878768102</v>
+        <v>0.1845126018546096</v>
       </c>
       <c r="T19">
-        <v>0.1825648878768103</v>
+        <v>0.1845126018546096</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.84844466666667</v>
+        <v>20.12912933333333</v>
       </c>
       <c r="H20">
-        <v>119.545334</v>
+        <v>60.387388</v>
       </c>
       <c r="I20">
-        <v>0.8733706599710749</v>
+        <v>0.7436389825445764</v>
       </c>
       <c r="J20">
-        <v>0.873370659971075</v>
+        <v>0.7436389825445765</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.437975</v>
+        <v>0.3969313333333333</v>
       </c>
       <c r="N20">
-        <v>1.313925</v>
+        <v>1.190794</v>
       </c>
       <c r="O20">
-        <v>0.1949756043995181</v>
+        <v>0.2235411323950991</v>
       </c>
       <c r="P20">
-        <v>0.194975604399518</v>
+        <v>0.2235411323950991</v>
       </c>
       <c r="Q20">
-        <v>17.45262255288333</v>
+        <v>7.989882145119111</v>
       </c>
       <c r="R20">
-        <v>157.07360297595</v>
+        <v>71.908939306072</v>
       </c>
       <c r="S20">
-        <v>0.1702859722926663</v>
+        <v>0.1662339002511539</v>
       </c>
       <c r="T20">
-        <v>0.1702859722926663</v>
+        <v>0.1662339002511539</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.84844466666667</v>
+        <v>20.12912933333333</v>
       </c>
       <c r="H21">
-        <v>119.545334</v>
+        <v>60.387388</v>
       </c>
       <c r="I21">
-        <v>0.8733706599710749</v>
+        <v>0.7436389825445764</v>
       </c>
       <c r="J21">
-        <v>0.873370659971075</v>
+        <v>0.7436389825445765</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1237366666666667</v>
+        <v>0.190781</v>
       </c>
       <c r="N21">
-        <v>0.37121</v>
+        <v>0.572343</v>
       </c>
       <c r="O21">
-        <v>0.05508449425130437</v>
+        <v>0.1074427670431731</v>
       </c>
       <c r="P21">
-        <v>0.05508449425130436</v>
+        <v>0.1074427670431731</v>
       </c>
       <c r="Q21">
-        <v>4.930713714904445</v>
+        <v>3.840255423342667</v>
       </c>
       <c r="R21">
-        <v>44.37642343414</v>
+        <v>34.562298810084</v>
       </c>
       <c r="S21">
-        <v>0.04810918109843458</v>
+        <v>0.07989862996575915</v>
       </c>
       <c r="T21">
-        <v>0.04810918109843458</v>
+        <v>0.07989862996575917</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5930623333333332</v>
+        <v>1.124498666666667</v>
       </c>
       <c r="H22">
-        <v>1.779187</v>
+        <v>3.373496</v>
       </c>
       <c r="I22">
-        <v>0.01299833019331358</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="J22">
-        <v>0.01299833019331358</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.982088</v>
+        <v>0.5144123333333334</v>
       </c>
       <c r="N22">
-        <v>2.946264</v>
+        <v>1.543237</v>
       </c>
       <c r="O22">
-        <v>0.437201213250788</v>
+        <v>0.2897032958967005</v>
       </c>
       <c r="P22">
-        <v>0.4372012132507879</v>
+        <v>0.2897032958967005</v>
       </c>
       <c r="Q22">
-        <v>0.5824394008186665</v>
+        <v>0.5784559829502223</v>
       </c>
       <c r="R22">
-        <v>5.241954607367999</v>
+        <v>5.206103846552001</v>
       </c>
       <c r="S22">
-        <v>0.005682885730751047</v>
+        <v>0.01203509543982103</v>
       </c>
       <c r="T22">
-        <v>0.005682885730751048</v>
+        <v>0.01203509543982103</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5930623333333332</v>
+        <v>1.124498666666667</v>
       </c>
       <c r="H23">
-        <v>1.779187</v>
+        <v>3.373496</v>
       </c>
       <c r="I23">
-        <v>0.01299833019331358</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="J23">
-        <v>0.01299833019331358</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>0.698852</v>
       </c>
       <c r="O23">
-        <v>0.1037038575914242</v>
+        <v>0.1311915977545905</v>
       </c>
       <c r="P23">
-        <v>0.1037038575914241</v>
+        <v>0.1311915977545905</v>
       </c>
       <c r="Q23">
-        <v>0.1381542659248889</v>
+        <v>0.2619527140657778</v>
       </c>
       <c r="R23">
-        <v>1.243388393324</v>
+        <v>2.357574426592</v>
       </c>
       <c r="S23">
-        <v>0.0013479769832937</v>
+        <v>0.005450070545424846</v>
       </c>
       <c r="T23">
-        <v>0.001347976983293701</v>
+        <v>0.005450070545424846</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5930623333333332</v>
+        <v>1.124498666666667</v>
       </c>
       <c r="H24">
-        <v>1.779187</v>
+        <v>3.373496</v>
       </c>
       <c r="I24">
-        <v>0.01299833019331358</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="J24">
-        <v>0.01299833019331358</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.4695563333333333</v>
+        <v>0.440577</v>
       </c>
       <c r="N24">
-        <v>1.408669</v>
+        <v>1.321731</v>
       </c>
       <c r="O24">
-        <v>0.2090348305069655</v>
+        <v>0.2481212069104368</v>
       </c>
       <c r="P24">
-        <v>0.2090348305069655</v>
+        <v>0.2481212069104368</v>
       </c>
       <c r="Q24">
-        <v>0.278476174678111</v>
+        <v>0.495428249064</v>
       </c>
       <c r="R24">
-        <v>2.506285572103</v>
+        <v>4.458854241576001</v>
       </c>
       <c r="S24">
-        <v>0.002717103748832877</v>
+        <v>0.01030765769014745</v>
       </c>
       <c r="T24">
-        <v>0.002717103748832877</v>
+        <v>0.01030765769014745</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5930623333333332</v>
+        <v>1.124498666666667</v>
       </c>
       <c r="H25">
-        <v>1.779187</v>
+        <v>3.373496</v>
       </c>
       <c r="I25">
-        <v>0.01299833019331358</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="J25">
-        <v>0.01299833019331358</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.437975</v>
+        <v>0.3969313333333333</v>
       </c>
       <c r="N25">
-        <v>1.313925</v>
+        <v>1.190794</v>
       </c>
       <c r="O25">
-        <v>0.1949756043995181</v>
+        <v>0.2235411323950991</v>
       </c>
       <c r="P25">
-        <v>0.194975604399518</v>
+        <v>0.2235411323950991</v>
       </c>
       <c r="Q25">
-        <v>0.2597464754416666</v>
+        <v>0.4463487550915556</v>
       </c>
       <c r="R25">
-        <v>2.337718278975</v>
+        <v>4.017138795824</v>
       </c>
       <c r="S25">
-        <v>0.00253435728562582</v>
+        <v>0.00928653177649722</v>
       </c>
       <c r="T25">
-        <v>0.00253435728562582</v>
+        <v>0.00928653177649722</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5930623333333332</v>
+        <v>1.124498666666667</v>
       </c>
       <c r="H26">
-        <v>1.779187</v>
+        <v>3.373496</v>
       </c>
       <c r="I26">
-        <v>0.01299833019331358</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="J26">
-        <v>0.01299833019331358</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1237366666666667</v>
+        <v>0.190781</v>
       </c>
       <c r="N26">
-        <v>0.37121</v>
+        <v>0.572343</v>
       </c>
       <c r="O26">
-        <v>0.05508449425130437</v>
+        <v>0.1074427670431731</v>
       </c>
       <c r="P26">
-        <v>0.05508449425130436</v>
+        <v>0.1074427670431731</v>
       </c>
       <c r="Q26">
-        <v>0.07338355625222222</v>
+        <v>0.2145329801253334</v>
       </c>
       <c r="R26">
-        <v>0.66045200627</v>
+        <v>1.930796821128</v>
       </c>
       <c r="S26">
-        <v>0.000716006444810138</v>
+        <v>0.004463476853725958</v>
       </c>
       <c r="T26">
-        <v>0.0007160064448101381</v>
+        <v>0.004463476853725958</v>
       </c>
     </row>
   </sheetData>
